--- a/main/ig/FRAdvanceDirectiveLMCDAFHIR.xlsx
+++ b/main/ig/FRAdvanceDirectiveLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T13:49:34+00:00</t>
+    <t>2026-01-19T11:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/FRAdvanceDirectiveLMCDAFHIR.xlsx
+++ b/main/ig/FRAdvanceDirectiveLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T11:08:31+00:00</t>
+    <t>2026-01-19T13:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/FRAdvanceDirectiveLMCDAFHIR.xlsx
+++ b/main/ig/FRAdvanceDirectiveLMCDAFHIR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
   <si>
     <t>Property</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T13:54:24+00:00</t>
+    <t>2026-01-23T08:28:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -202,9 +202,6 @@
     <t>FRAdvanceDirectiveDocument.dateTime</t>
   </si>
   <si>
-    <t>FRCDADirectiveAnticipee.value</t>
-  </si>
-  <si>
     <t>FRAdvanceDirectiveDocument.provision.type</t>
   </si>
   <si>
@@ -212,6 +209,9 @@
   </si>
   <si>
     <t>FRAdvanceDirectiveDocument.sourceAttachment</t>
+  </si>
+  <si>
+    <t>FRAdvanceDirectiveDocument.sourceAttachment.id</t>
   </si>
   <si>
     <t>FRAdvanceDirectiveDocument.sourceAttachment.data</t>
@@ -675,7 +675,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -782,14 +782,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -802,7 +802,7 @@
         <v>32</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -815,7 +815,7 @@
         <v>32</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -828,20 +828,20 @@
         <v>32</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -854,9 +854,22 @@
         <v>32</v>
       </c>
       <c r="D13" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E14" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/main/ig/FRAdvanceDirectiveLMCDAFHIR.xlsx
+++ b/main/ig/FRAdvanceDirectiveLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-23T08:28:04+00:00</t>
+    <t>2026-01-28T14:36:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/FRAdvanceDirectiveLMCDAFHIR.xlsx
+++ b/main/ig/FRAdvanceDirectiveLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T14:36:08+00:00</t>
+    <t>2026-02-05T08:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
